--- a/data/en/Balanco_potavel.xlsx
+++ b/data/en/Balanco_potavel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42F8DE1-DF6E-4069-A7A6-CFAE2391A44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98135237-0B75-414A-ADA4-323CBBEFDD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="1776" yWindow="840" windowWidth="19812" windowHeight="11520" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
   <si>
     <t>Ordem</t>
   </si>
@@ -445,25 +445,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -554,7 +554,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -864,7 +864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -950,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>5</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>5</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>4</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>5</v>
       </c>
@@ -1937,6 +1937,138 @@
         <v>9</v>
       </c>
       <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
